--- a/data/evaluation/evaluation_South_Summer_Radishes.xlsx
+++ b/data/evaluation/evaluation_South_Summer_Radishes.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1656.811421816031</v>
+        <v>1648.227967004146</v>
       </c>
       <c r="C4" t="n">
-        <v>9489659.366730118</v>
+        <v>10280652.02758394</v>
       </c>
       <c r="D4" t="n">
-        <v>3080.529072534476</v>
+        <v>3206.345587672036</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.188480270787408</v>
+        <v>-3.537603145096166</v>
       </c>
     </row>
     <row r="5">
